--- a/20181214_更新_病虫害数据（61类）标签说明.xlsx
+++ b/20181214_更新_病虫害数据（61类）标签说明.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kefeng/51zhongzi/[project]_DiseasePestRecognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kefeng/51zhongzi/[project]_DiseasePestRecognition/PlantDiseaseDatabaseScripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BC227C-4454-364A-A46E-59C62237D625}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E37A3FB-5FF9-A047-8261-09B6E4C57A49}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21600" yWindow="-8880" windowWidth="21600" windowHeight="38400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="195">
   <si>
     <t>Label id</t>
   </si>
@@ -489,9 +489,6 @@
   </si>
   <si>
     <t>late-blight-water-mold</t>
-  </si>
-  <si>
-    <t>晚疫病菌</t>
   </si>
   <si>
     <t>49 </t>
@@ -985,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,7 +1299,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -1328,7 +1325,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1420,7 +1417,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -2199,7 +2196,7 @@
         <v>140</v>
       </c>
       <c r="G50" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2207,10 +2204,10 @@
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C51" t="s">
         <v>139</v>
@@ -2225,7 +2222,7 @@
         <v>140</v>
       </c>
       <c r="G51" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="H51" t="s">
         <v>17</v>
@@ -2233,16 +2230,16 @@
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C52" t="s">
         <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -2251,7 +2248,7 @@
         <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2259,16 +2256,16 @@
     </row>
     <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C53" t="s">
         <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
         <v>16</v>
@@ -2277,7 +2274,7 @@
         <v>140</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H53" t="s">
         <v>17</v>
@@ -2285,16 +2282,16 @@
     </row>
     <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C54" t="s">
         <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -2303,7 +2300,7 @@
         <v>140</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2311,16 +2308,16 @@
     </row>
     <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C55" t="s">
         <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -2329,7 +2326,7 @@
         <v>140</v>
       </c>
       <c r="G55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H55" t="s">
         <v>17</v>
@@ -2337,16 +2334,16 @@
     </row>
     <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C56" t="s">
         <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -2355,7 +2352,7 @@
         <v>140</v>
       </c>
       <c r="G56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2363,16 +2360,16 @@
     </row>
     <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C57" t="s">
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E57" t="s">
         <v>16</v>
@@ -2381,7 +2378,7 @@
         <v>140</v>
       </c>
       <c r="G57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
         <v>17</v>
@@ -2389,16 +2386,16 @@
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C58" t="s">
         <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -2407,7 +2404,7 @@
         <v>140</v>
       </c>
       <c r="G58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2415,16 +2412,16 @@
     </row>
     <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C59" t="s">
         <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E59" t="s">
         <v>16</v>
@@ -2433,7 +2430,7 @@
         <v>140</v>
       </c>
       <c r="G59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H59" t="s">
         <v>17</v>
@@ -2441,16 +2438,16 @@
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C60" t="s">
         <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -2459,7 +2456,7 @@
         <v>140</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2467,16 +2464,16 @@
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C61" t="s">
         <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E61" t="s">
         <v>16</v>
@@ -2485,7 +2482,7 @@
         <v>140</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H61" t="s">
         <v>17</v>
@@ -2493,16 +2490,16 @@
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C62" t="s">
         <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F62" t="s">
         <v>140</v>
@@ -2531,12 +2528,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
